--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevingeurts/Desktop/MA/bewijzenmap/periode 1.3/PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevingeurts/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386DBC57-4D57-044C-ABC4-84D5F38E8B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{918E2C2F-3522-F24F-BF37-9398000FB279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voorbeeld journey Naar film" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="user journey" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="user stories" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="Blad2" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="US - Registratie pagina" sheetId="6" r:id="rId5"/>
+    <sheet name="Backlog" sheetId="6" r:id="rId5"/>
     <sheet name="US - Upload pagina" sheetId="8" r:id="rId6"/>
     <sheet name="US - foto pagina" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>fase</t>
   </si>
@@ -311,21 +311,6 @@
     <t>Foto's uploaden</t>
   </si>
   <si>
-    <t>Doel van de website</t>
-  </si>
-  <si>
-    <t>Foto's kunnen verwijderen</t>
-  </si>
-  <si>
-    <t>Ik de foto's die ik niet meer wil kan weghalen</t>
-  </si>
-  <si>
-    <t>Foto's kunnen bekijken</t>
-  </si>
-  <si>
-    <t>Doel van website</t>
-  </si>
-  <si>
     <t>Informatie bevoegen bij de foto</t>
   </si>
   <si>
@@ -338,22 +323,31 @@
     <t>/</t>
   </si>
   <si>
-    <t>Je eigen foto's kunnen verwijderen</t>
-  </si>
-  <si>
-    <t>De foto niet meer zie</t>
-  </si>
-  <si>
-    <t>Omschrijving aanpassen</t>
-  </si>
-  <si>
-    <t>Je een andere omschrijving bij je foto kan voegen</t>
-  </si>
-  <si>
-    <t>Foto kunnen verwijderen</t>
-  </si>
-  <si>
     <t>ongepaste foto's kan verwijderen</t>
+  </si>
+  <si>
+    <t>foto's bekijken</t>
+  </si>
+  <si>
+    <t>het doel bereik</t>
+  </si>
+  <si>
+    <t>mijn eigen foto's verwijderen</t>
+  </si>
+  <si>
+    <t>de foto's niet meer online staan</t>
+  </si>
+  <si>
+    <t>de omschrijving aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> een andere omschrijving bij je foto kan voegen</t>
+  </si>
+  <si>
+    <t>foto's verwijderen</t>
+  </si>
+  <si>
+    <t>ik de foto's die ik niet meer wil kan weghalen</t>
   </si>
 </sst>
 </file>
@@ -904,6 +898,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -921,33 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,34 +1313,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1369,89 +1363,89 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1800,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73090959-95DD-4349-9CE6-443F6E61E5BA}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1951,7 +1945,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1991,10 +1985,10 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
@@ -2008,10 +2002,10 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -2028,10 +2022,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2054,13 +2048,13 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -2071,13 +2065,13 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -2088,13 +2082,13 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -2126,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA652BF-F781-47E0-B4ED-C1DE1C055DAB}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2164,13 +2158,13 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
@@ -2184,10 +2178,10 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -2204,10 +2198,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2230,10 +2224,10 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
